--- a/src/main/resources/学习.xlsx
+++ b/src/main/resources/学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JavaDemo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4459BF7-71D7-4D73-AFD9-F7DA41B6097B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAEF3D-0ABE-4754-B063-A0D83A180BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5283ED6-571D-4D01-A8F2-F26F468A4513}"/>
   </bookViews>
@@ -34,13 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>网络模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网络框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B6D2F9-B374-4589-B832-79FF7336403D}">
-  <dimension ref="B11:B18"/>
+  <dimension ref="B11:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -418,9 +426,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/学习.xlsx
+++ b/src/main/resources/学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JavaDemo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBAEF3D-0ABE-4754-B063-A0D83A180BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532034C3-A4FE-47CC-AFE6-B2B26FED7F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5283ED6-571D-4D01-A8F2-F26F468A4513}"/>
   </bookViews>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>网络模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>网络框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +45,102 @@
   </si>
   <si>
     <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向数据报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ack确认机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三次握手、四次挥手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netty模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心思想：将IO处理与逻辑业务分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worker thread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要负责监听和接受新的网络连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂处理已经连接的网络IO,包括读写数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路复用器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般只有一个线程，除非监听多个端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议：http2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化：protobuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路复用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务定义与代码生成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,32 +505,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B6D2F9-B374-4589-B832-79FF7336403D}">
-  <dimension ref="B11:D20"/>
+  <dimension ref="B6:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="6" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>3</v>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" t="s">
+        <v>14</v>
+      </c>
+      <c r="W39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" t="s">
+        <v>15</v>
+      </c>
+      <c r="W40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="12:23" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
